--- a/src/test/resources/realExcel.xlsx
+++ b/src/test/resources/realExcel.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="89">
   <si>
     <t xml:space="preserve">院別</t>
   </si>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t xml:space="preserve">藝設系108BA 選修</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>02.1</t>
   </si>
 </sst>
 </file>
@@ -482,20 +494,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="5.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.45"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="9.0" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="12.45" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="19.63" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.45" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="15.09" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="4.54" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="7.63" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="11.27" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="0" width="8.81" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="0" width="19.36" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="17.63" collapsed="true" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="5.63" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="5.81" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="6.45" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -558,8 +570,8 @@
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>2</v>
+      <c r="F2" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>19</v>
@@ -602,8 +614,8 @@
       <c r="E3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>2</v>
+      <c r="F3" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>29</v>
@@ -686,8 +698,8 @@
       <c r="E5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>2</v>
+      <c r="F5" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>43</v>
@@ -770,8 +782,8 @@
       <c r="E7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="4" t="n">
-        <v>2</v>
+      <c r="F7" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>53</v>
@@ -854,8 +866,8 @@
       <c r="E9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="4" t="n">
-        <v>2</v>
+      <c r="F9" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>64</v>
@@ -938,8 +950,8 @@
       <c r="E11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="4" t="n">
-        <v>2</v>
+      <c r="F11" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>53</v>

--- a/src/test/resources/realExcel.xlsx
+++ b/src/test/resources/realExcel.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="90">
   <si>
     <t xml:space="preserve">院別</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>02.1</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -553,6 +556,15 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -570,14 +582,14 @@
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>87</v>
+      <c r="F2" s="4" t="n">
+        <v>2.0</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>20</v>
+      <c r="H2" s="3" t="n">
+        <v>8102.0</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>21</v>
@@ -596,6 +608,15 @@
       </c>
       <c r="N2" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,14 +635,14 @@
       <c r="E3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>87</v>
+      <c r="F3" s="4" t="n">
+        <v>2.0</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>30</v>
+      <c r="H3" s="3" t="n">
+        <v>8601.0</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>31</v>
@@ -635,9 +656,20 @@
       <c r="L3" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" t="s">
+        <v>89</v>
+      </c>
       <c r="N3" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -662,8 +694,8 @@
       <c r="G4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>38</v>
+      <c r="H4" s="3" t="n">
+        <v>8213.0</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>39</v>
@@ -677,9 +709,20 @@
       <c r="L4" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" t="s">
+        <v>89</v>
+      </c>
       <c r="N4" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="O4" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,14 +741,14 @@
       <c r="E5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>87</v>
+      <c r="F5" s="4" t="n">
+        <v>2.0</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>30</v>
+      <c r="H5" s="3" t="n">
+        <v>8601.0</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>44</v>
@@ -719,9 +762,20 @@
       <c r="L5" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" t="s">
+        <v>89</v>
+      </c>
       <c r="N5" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="O5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,8 +800,8 @@
       <c r="G6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>38</v>
+      <c r="H6" s="3" t="n">
+        <v>8213.0</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>49</v>
@@ -761,9 +815,20 @@
       <c r="L6" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" t="s">
+        <v>89</v>
+      </c>
       <c r="N6" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="O6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,14 +847,14 @@
       <c r="E7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>87</v>
+      <c r="F7" s="4" t="n">
+        <v>2.0</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>30</v>
+      <c r="H7" s="3" t="n">
+        <v>8601.0</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>54</v>
@@ -803,9 +868,20 @@
       <c r="L7" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" t="s">
+        <v>89</v>
+      </c>
       <c r="N7" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -830,8 +906,8 @@
       <c r="G8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>38</v>
+      <c r="H8" s="3" t="n">
+        <v>8213.0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>60</v>
@@ -845,9 +921,20 @@
       <c r="L8" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" t="s">
+        <v>89</v>
+      </c>
       <c r="N8" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="O8" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,14 +953,14 @@
       <c r="E9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>87</v>
+      <c r="F9" s="4" t="n">
+        <v>2.0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>30</v>
+      <c r="H9" s="3" t="n">
+        <v>8601.0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>65</v>
@@ -887,9 +974,20 @@
       <c r="L9" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" t="s">
+        <v>89</v>
+      </c>
       <c r="N9" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -914,8 +1012,8 @@
       <c r="G10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>69</v>
+      <c r="H10" s="3" t="n">
+        <v>8201.0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>70</v>
@@ -929,9 +1027,20 @@
       <c r="L10" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" t="s">
+        <v>89</v>
+      </c>
       <c r="N10" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="O10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,14 +1059,14 @@
       <c r="E11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>87</v>
+      <c r="F11" s="4" t="n">
+        <v>2.0</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>69</v>
+      <c r="H11" s="3" t="n">
+        <v>8201.0</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>49</v>
@@ -971,9 +1080,20 @@
       <c r="L11" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" t="s">
+        <v>89</v>
+      </c>
       <c r="N11" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="O11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -998,8 +1118,8 @@
       <c r="G12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>38</v>
+      <c r="H12" s="3" t="n">
+        <v>8213.0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>82</v>
@@ -1013,9 +1133,179 @@
       <c r="L12" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" t="s">
+        <v>89</v>
+      </c>
       <c r="N12" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="O12" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M13" t="s">
+        <v>89</v>
+      </c>
+      <c r="N13" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" t="s">
+        <v>89</v>
+      </c>
+      <c r="O14" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" t="s">
+        <v>89</v>
+      </c>
+      <c r="O15" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
